--- a/data/excel/all.xlsx
+++ b/data/excel/all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Excel</t>
   </si>
@@ -44,6 +44,9 @@
     <t>MgrType</t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t>CodeComment</t>
   </si>
   <si>
@@ -65,13 +68,23 @@
     <t>导出的数据管理类类型,map slice object</t>
   </si>
   <si>
+    <t>导出分组标记
+c s cs</t>
+  </si>
+  <si>
     <t>导出到代码里的注释</t>
   </si>
   <si>
+    <t>excel表里的注释,不导出</t>
+  </si>
+  <si>
     <t>questcfg.xlsx</t>
   </si>
   <si>
     <t>QuestCfg</t>
+  </si>
+  <si>
+    <t>cs</t>
   </si>
   <si>
     <t>任务数据</t>
@@ -1239,25 +1252,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="32.75" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="62.25" customWidth="1"/>
+    <col min="5" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:8">
+    <row r="1" ht="32" customHeight="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,52 +1289,67 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="40.5" spans="1:6">
+    <row r="2" ht="40.5" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/all.xlsx
+++ b/data/excel/all.xlsx
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/data/excel/all.xlsx
+++ b/data/excel/all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Excel</t>
   </si>
@@ -38,15 +38,18 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>MgrType</t>
   </si>
   <si>
+    <t>MapKey</t>
+  </si>
+  <si>
     <t>Group</t>
   </si>
   <si>
+    <t>Merge</t>
+  </si>
+  <si>
     <t>CodeComment</t>
   </si>
   <si>
@@ -56,20 +59,25 @@
     <t>##excel文件名</t>
   </si>
   <si>
-    <t>sheet名,不能重复</t>
-  </si>
-  <si>
-    <t>proto里定义的结构名</t>
-  </si>
-  <si>
-    <t>不填就默认以sheet的第一列作为key</t>
-  </si>
-  <si>
-    <t>导出的数据管理类类型,map slice object</t>
+    <t>sheet名</t>
+  </si>
+  <si>
+    <t>proto里定义的结构名,不填就默认使用sheet名</t>
+  </si>
+  <si>
+    <t>导出的数据管理类类型,map slice object,不填就默认map</t>
+  </si>
+  <si>
+    <t>不填就默认以sheet的第一列作为key
+(MgrType=map时才有效)</t>
   </si>
   <si>
     <t>导出分组标记
-c s cs</t>
+c s cs
+不填就默认cs</t>
+  </si>
+  <si>
+    <t>把不同的sheet里面的数据合并到一个文件中</t>
   </si>
   <si>
     <t>导出到代码里的注释</t>
@@ -712,9 +720,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1252,25 +1263,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="62.25" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:9">
+    <row r="1" ht="32" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,64 +1304,70 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="40.5" spans="1:8">
+    <row r="2" ht="54" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
+      <c r="H4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/all.xlsx
+++ b/data/excel/all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Excel</t>
   </si>
@@ -86,25 +86,31 @@
     <t>excel表里的注释,不导出</t>
   </si>
   <si>
+    <t>itemcfg.xlsx</t>
+  </si>
+  <si>
+    <t>ItemCfg</t>
+  </si>
+  <si>
+    <t>物品数据</t>
+  </si>
+  <si>
     <t>questcfg.xlsx</t>
   </si>
   <si>
     <t>QuestCfg</t>
   </si>
   <si>
-    <t>cs</t>
+    <t>Quests</t>
   </si>
   <si>
     <t>任务数据</t>
   </si>
   <si>
-    <t>itemcfg.xlsx</t>
-  </si>
-  <si>
-    <t>ItemCfg</t>
-  </si>
-  <si>
-    <t>物品数据</t>
+    <t>achievement.xlsx</t>
+  </si>
+  <si>
+    <t>成就数据(成就是任务的一种)</t>
   </si>
 </sst>
 </file>
@@ -720,12 +726,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1263,13 +1266,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="3" width="25.25" customWidth="1"/>
@@ -1319,7 +1322,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1341,33 +1344,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/all.xlsx
+++ b/data/excel/all.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Excel</t>
   </si>
@@ -95,22 +95,70 @@
     <t>物品数据</t>
   </si>
   <si>
+    <t>achievement.xlsx</t>
+  </si>
+  <si>
+    <t>QuestCfg</t>
+  </si>
+  <si>
+    <t>Quests</t>
+  </si>
+  <si>
+    <t>成就数据(成就是任务的一种)</t>
+  </si>
+  <si>
+    <t>condition_template.xlsx</t>
+  </si>
+  <si>
+    <t>condition_template</t>
+  </si>
+  <si>
+    <t>ConditionTemplateCfg</t>
+  </si>
+  <si>
+    <t>progress_template.xlsx</t>
+  </si>
+  <si>
+    <t>progress_template</t>
+  </si>
+  <si>
+    <t>ProgressTemplateCfg</t>
+  </si>
+  <si>
+    <t>levelcfg.xlsx</t>
+  </si>
+  <si>
+    <t>levelcfg</t>
+  </si>
+  <si>
+    <t>LevelExp</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>exchange.xlsx</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>ExchangeCfg</t>
+  </si>
+  <si>
     <t>questcfg.xlsx</t>
   </si>
   <si>
-    <t>QuestCfg</t>
-  </si>
-  <si>
-    <t>Quests</t>
-  </si>
-  <si>
     <t>任务数据</t>
   </si>
   <si>
-    <t>achievement.xlsx</t>
-  </si>
-  <si>
-    <t>成就数据(成就是任务的一种)</t>
+    <t>activitycfg.xlsx</t>
+  </si>
+  <si>
+    <t>activitycfg</t>
+  </si>
+  <si>
+    <t>ActivityCfg</t>
   </si>
 </sst>
 </file>
@@ -1266,13 +1314,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
     <col min="2" max="3" width="25.25" customWidth="1"/>
@@ -1355,7 +1403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1368,20 +1416,78 @@
       <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:10">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/all.xlsx
+++ b/data/excel/all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Excel</t>
   </si>
@@ -95,6 +95,9 @@
     <t>物品数据</t>
   </si>
   <si>
+    <t>演示常规的excel表</t>
+  </si>
+  <si>
     <t>achievement.xlsx</t>
   </si>
   <si>
@@ -107,22 +110,7 @@
     <t>成就数据(成就是任务的一种)</t>
   </si>
   <si>
-    <t>condition_template.xlsx</t>
-  </si>
-  <si>
-    <t>condition_template</t>
-  </si>
-  <si>
-    <t>ConditionTemplateCfg</t>
-  </si>
-  <si>
-    <t>progress_template.xlsx</t>
-  </si>
-  <si>
-    <t>progress_template</t>
-  </si>
-  <si>
-    <t>ProgressTemplateCfg</t>
+    <t>演示合并导出</t>
   </si>
   <si>
     <t>levelcfg.xlsx</t>
@@ -137,28 +125,13 @@
     <t>slice</t>
   </si>
   <si>
-    <t>exchange.xlsx</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>ExchangeCfg</t>
+    <t>演示slice格式的数据</t>
   </si>
   <si>
     <t>questcfg.xlsx</t>
   </si>
   <si>
     <t>任务数据</t>
-  </si>
-  <si>
-    <t>activitycfg.xlsx</t>
-  </si>
-  <si>
-    <t>activitycfg</t>
-  </si>
-  <si>
-    <t>ActivityCfg</t>
   </si>
 </sst>
 </file>
@@ -1314,20 +1287,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="62.25" customWidth="1"/>
@@ -1392,7 +1367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1402,93 +1377,61 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:10">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/all.xlsx
+++ b/data/excel/all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Excel</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>任务数据</t>
+  </si>
+  <si>
+    <t>progress_template.xlsx</t>
+  </si>
+  <si>
+    <t>progress_template</t>
+  </si>
+  <si>
+    <t>ProgressTemplateCfg</t>
+  </si>
+  <si>
+    <t>演示字段也是结构体的导出</t>
   </si>
 </sst>
 </file>
@@ -1287,16 +1299,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
@@ -1433,6 +1445,20 @@
       </c>
       <c r="J6" s="1"/>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/excel/all.xlsx
+++ b/data/excel/all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Excel</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>演示slice格式的数据</t>
+  </si>
+  <si>
+    <t>exchange.xlsx</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>ExchangeCfg</t>
+  </si>
+  <si>
+    <t>兑换数据</t>
   </si>
   <si>
     <t>questcfg.xlsx</t>
@@ -1299,13 +1311,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -1427,36 +1439,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:10">
+    <row r="6" customFormat="1" spans="1:8">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
